--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_39.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3974202.63867484</v>
+        <v>3971638.369525082</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205918</v>
+        <v>9964927.035287919</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431051</v>
+        <v>430763.7823717236</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7451455.298339724</v>
+        <v>7451601.610615646</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>340.6116924031656</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>155.886038567534</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>22.35153719005479</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,16 +896,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>44.90925090849413</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>325.2557485598865</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>113.2870337730224</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>203.1609600883623</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>60.46179076613115</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>358.5239983301261</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>139.652855120685</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>43.31785343914003</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
@@ -1582,7 +1582,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>210.177480908705</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>195.6189629518007</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
-        <v>-1.027018470267649e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374755</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>9.434273714503275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>1.749532638427066</v>
       </c>
       <c r="I16" t="n">
         <v>81.80457674440902</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>33.97895442578186</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>64.44601915223836</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2093,10 +2093,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>64.44601915223838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>175.9511336820613</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>91.23885045891228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5420528771669</v>
+        <v>88.01811285915109</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>86.27179222793767</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>229.6231179274732</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>13.85794957155431</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>105.3798824585354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081949</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
-        <v>199.1970568374741</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U32" t="n">
         <v>250.9088959876463</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561452</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.272790488244789</v>
       </c>
       <c r="D34" t="n">
-        <v>105.3798824585354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
-        <v>181.3384883584589</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3275,13 +3275,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127574</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081967</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876464</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>117.4882993916598</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>89.53408223745137</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3512,13 +3512,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.6125906008197</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876464</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>91.23885045891222</v>
+        <v>20.38088071884254</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127574</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081969</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876464</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>81.37259901119289</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>152.6094296705432</v>
       </c>
       <c r="U43" t="n">
         <v>286.1854515484204</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,10 +3989,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,10 +4068,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>34.45703212904663</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,19 +4180,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>106.9764711655038</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1139.146815977588</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>770.1842990371763</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>411.9186004304258</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>411.9186004304258</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>1915.885988017521</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>1525.74665604171</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4410,16 +4410,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587812</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.4036268380756</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>631.9064409481875</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533138</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2368.607930856721</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2368.607930856721</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,40 +4647,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>318.4909684781774</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>168.3743290658416</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>168.3743290658416</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>168.3743290658416</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>168.3743290658416</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>168.3743290658416</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035243</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631125</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>135.884402556362</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
         <v>1949.298676890959</v>
@@ -5027,7 +5027,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5057,7 +5057,7 @@
         <v>3603.64596425946</v>
       </c>
       <c r="P11" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q11" t="n">
         <v>4566.333620403614</v>
@@ -5072,19 +5072,19 @@
         <v>4405.74099602652</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="12">
@@ -5127,19 +5127,19 @@
         <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1356.791087284249</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N12" t="n">
-        <v>1356.791087284249</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.8714428665047</v>
+        <v>699.941846848844</v>
       </c>
       <c r="C13" t="n">
-        <v>402.9352599385978</v>
+        <v>699.941846848844</v>
       </c>
       <c r="D13" t="n">
-        <v>402.9352599385978</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="E13" t="n">
-        <v>402.9352599385978</v>
+        <v>549.8252074365082</v>
       </c>
       <c r="F13" t="n">
         <v>402.9352599385978</v>
@@ -5230,19 +5230,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.403695981139</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.719207775252</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.302037738292</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X13" t="n">
-        <v>974.3124868402746</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.5199076967444</v>
+        <v>699.941846848844</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5252,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127619</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160599</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J14" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K14" t="n">
         <v>842.974607438402</v>
@@ -5288,40 +5288,40 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151122</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.44548561026</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297608</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403615</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612965</v>
       </c>
       <c r="J15" t="n">
-        <v>241.496329903453</v>
+        <v>94.88738072612965</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668117</v>
+        <v>425.3961232894885</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310563</v>
+        <v>916.1284561332398</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.755759562691</v>
+        <v>1508.146810385368</v>
       </c>
       <c r="N15" t="n">
-        <v>2276.851722962027</v>
+        <v>2130.242773784704</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5413,31 +5413,31 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>485.5661455390109</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D16" t="n">
-        <v>485.5661455390109</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E16" t="n">
-        <v>485.5661455390109</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F16" t="n">
-        <v>485.5661455390109</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="H16" t="n">
         <v>176.4792337520202</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5492,70 +5492,70 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963574</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127638</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160771</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K17" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V17" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.861033895493</v>
@@ -5568,61 +5568,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C18" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D18" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E18" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F18" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G18" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="K18" t="n">
-        <v>302.0892292003568</v>
+        <v>424.3570907149644</v>
       </c>
       <c r="L18" t="n">
-        <v>792.8215620441082</v>
+        <v>424.3570907149644</v>
       </c>
       <c r="M18" t="n">
-        <v>1384.839916296236</v>
+        <v>1016.37544496709</v>
       </c>
       <c r="N18" t="n">
-        <v>2006.935879695572</v>
+        <v>1321.464883050345</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050537</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S18" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U18" t="n">
         <v>2016.877442379908</v>
@@ -5634,7 +5634,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y18" t="n">
         <v>1111.876178449477</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>676.7441797778318</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>507.807996849925</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>357.6913574375892</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>323.3691812499308</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="G19" t="n">
-        <v>158.945337194272</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="H19" t="n">
-        <v>158.945337194272</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127639</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K20" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="21">
@@ -5805,61 +5805,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E21" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F21" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612932</v>
       </c>
       <c r="J21" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779744</v>
       </c>
       <c r="K21" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413318</v>
       </c>
       <c r="L21" t="n">
-        <v>915.0894235587172</v>
+        <v>1063.776437885081</v>
       </c>
       <c r="M21" t="n">
-        <v>1507.107777810845</v>
+        <v>1655.794792137207</v>
       </c>
       <c r="N21" t="n">
-        <v>2129.203741210181</v>
+        <v>1655.794792137207</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.812354695766</v>
+        <v>2202.671267137399</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476611</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461857</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5871,7 +5871,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>495.0957149476001</v>
+        <v>727.0053128151812</v>
       </c>
       <c r="C22" t="n">
-        <v>326.1595320196932</v>
+        <v>558.0691298872744</v>
       </c>
       <c r="D22" t="n">
-        <v>261.0625429770282</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0625429770282</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F22" t="n">
         <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R22" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S22" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T22" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U22" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V22" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W22" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X22" t="n">
-        <v>897.5367589213699</v>
+        <v>947.7978919587114</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.7441797778398</v>
+        <v>727.0053128151812</v>
       </c>
     </row>
     <row r="23">
@@ -5975,46 +5975,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I23" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K23" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
@@ -6072,22 +6072,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="L24" t="n">
-        <v>584.5806809953584</v>
+        <v>584.580680995359</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849127</v>
+        <v>1176.599035247487</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284249</v>
+        <v>1321.464883050337</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050532</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476608</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>495.0957149476001</v>
+        <v>723.0852658456201</v>
       </c>
       <c r="C25" t="n">
-        <v>402.9352599385978</v>
+        <v>554.1490829177133</v>
       </c>
       <c r="D25" t="n">
-        <v>402.9352599385978</v>
+        <v>554.1490829177133</v>
       </c>
       <c r="E25" t="n">
-        <v>402.9352599385978</v>
+        <v>554.1490829177133</v>
       </c>
       <c r="F25" t="n">
-        <v>402.9352599385978</v>
+        <v>407.2591354198029</v>
       </c>
       <c r="G25" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I25" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V25" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W25" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X25" t="n">
-        <v>897.5367589213699</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.7441797778398</v>
+        <v>904.7337306758599</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6212,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294971</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234009</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151116</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6300,31 +6300,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J27" t="n">
-        <v>241.4963299034533</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K27" t="n">
-        <v>572.0050724668126</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="L27" t="n">
-        <v>1062.737405310565</v>
+        <v>107.3505653988756</v>
       </c>
       <c r="M27" t="n">
-        <v>1384.839916296234</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N27" t="n">
-        <v>2006.935879695571</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149476028</v>
+        <v>552.5703416234767</v>
       </c>
       <c r="C28" t="n">
-        <v>407.9524904749385</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="D28" t="n">
-        <v>407.9524904749385</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9524904749385</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G28" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160703</v>
@@ -6382,52 +6382,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.52630981939</v>
+        <v>1183.000936495264</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213727</v>
+        <v>955.0113855972465</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778425</v>
+        <v>734.2188064537164</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160677</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384032</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944179</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883217</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.783927800325</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O29" t="n">
-        <v>3603.645964259464</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P29" t="n">
-        <v>4151.951912946813</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q29" t="n">
-        <v>4515.53409905282</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6537,31 +6537,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2380436180293</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M30" t="n">
-        <v>965.2563978701578</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N30" t="n">
-        <v>1587.352361269495</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="O30" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476028</v>
+        <v>662.7462509176839</v>
       </c>
       <c r="C31" t="n">
-        <v>495.0957149476028</v>
+        <v>493.8100679897771</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6513892319105</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160703</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>893.7741287891952</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294971</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234009</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151116</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610256</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297605</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
@@ -6780,25 +6780,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K33" t="n">
-        <v>424.3570907149663</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L33" t="n">
-        <v>915.0894235587183</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="M33" t="n">
-        <v>1507.107777810847</v>
+        <v>1016.375444967093</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.203741210184</v>
+        <v>1638.471408366429</v>
       </c>
       <c r="O33" t="n">
-        <v>2323.251080710519</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P33" t="n">
-        <v>2323.251080710519</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149476028</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>495.0957149476028</v>
+        <v>493.8100679897771</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6513892319105</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7382956495174</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F34" t="n">
-        <v>93.84834815160703</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.8304710411611</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117251</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
-        <v>820.2210160948597</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M34" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N34" t="n">
-        <v>1654.146473931027</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O34" t="n">
-        <v>2021.168930946057</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P34" t="n">
-        <v>2311.699365782261</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q34" t="n">
-        <v>2429.412499335697</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R34" t="n">
-        <v>2361.553154294199</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2178.382964033129</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>1958.704181747511</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1669.627968062238</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1414.943479856351</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1125.52630981939</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>897.5367589213727</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778425</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6917,70 +6917,70 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963567</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127631</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892027</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294978</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234016</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.583449151122</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.44548561026</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297608</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403615</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668118</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="L36" t="n">
-        <v>572.0050724668118</v>
+        <v>584.5806809953583</v>
       </c>
       <c r="M36" t="n">
-        <v>734.6951238849127</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N36" t="n">
         <v>1356.791087284249</v>
       </c>
       <c r="O36" t="n">
-        <v>1903.667562284443</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P36" t="n">
-        <v>2323.251080710519</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.812354695766</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>676.7441797778398</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>558.0691298872744</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9524904749386</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9524904749386</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160706</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7151,25 +7151,25 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963571</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127631</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
         <v>373.34422365072</v>
@@ -7184,37 +7184,37 @@
         <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.861033895493</v>
@@ -7245,28 +7245,28 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J39" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668117</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L39" t="n">
-        <v>572.0050724668117</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M39" t="n">
-        <v>1164.023426718939</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N39" t="n">
-        <v>1786.119390118276</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O39" t="n">
-        <v>2332.99586511847</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
         <v>2553.812354695766</v>
@@ -7309,25 +7309,25 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>402.9352599385978</v>
+        <v>474.508966746749</v>
       </c>
       <c r="D40" t="n">
-        <v>402.9352599385978</v>
+        <v>324.3923273344133</v>
       </c>
       <c r="E40" t="n">
-        <v>402.9352599385978</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385978</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131767</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
         <v>172.8304710411609</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127631</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
         <v>373.34422365072</v>
@@ -7427,34 +7427,34 @@
         <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160706</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160706</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160706</v>
+        <v>425.3961232894883</v>
       </c>
       <c r="L42" t="n">
-        <v>142.6767696327857</v>
+        <v>916.1284561332395</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849133</v>
+        <v>1508.146810385367</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284249</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284444</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.25108071052</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476001</v>
+        <v>788.6131090700806</v>
       </c>
       <c r="C43" t="n">
-        <v>326.1595320196932</v>
+        <v>788.6131090700806</v>
       </c>
       <c r="D43" t="n">
-        <v>176.0428926073575</v>
+        <v>638.4964696577448</v>
       </c>
       <c r="E43" t="n">
-        <v>93.84834815160706</v>
+        <v>490.5833760753517</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160706</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160706</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
         <v>172.8304710411609</v>
@@ -7597,22 +7597,22 @@
         <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>1958.704181747508</v>
+        <v>2024.232024971971</v>
       </c>
       <c r="U43" t="n">
-        <v>1669.627968062235</v>
+        <v>1735.155811286698</v>
       </c>
       <c r="V43" t="n">
-        <v>1414.943479856348</v>
+        <v>1480.471323080811</v>
       </c>
       <c r="W43" t="n">
-        <v>1125.526309819387</v>
+        <v>1191.05415304385</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213699</v>
+        <v>1191.05415304385</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778398</v>
+        <v>970.2615739003203</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556096</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148065</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436021</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118413</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459571</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064409</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160706</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4949906792618</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4949906792618</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4949906792618</v>
+        <v>1063.776437885085</v>
       </c>
       <c r="M45" t="n">
-        <v>716.7004695005659</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.298433055173</v>
+        <v>1655.794792137213</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.20816329446</v>
+        <v>2202.671267137407</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3872889134587</v>
+        <v>641.7231615721702</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4511059855519</v>
+        <v>641.7231615721702</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6460230269189</v>
+        <v>491.6065221598345</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7329294445258</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8429819466155</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6468826614954</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9350515036934</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074694</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834095</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674452</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383437</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683895</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.994768683895</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.994768683895</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.994768683895</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.919542028093</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.235053822207</v>
+        <v>1561.570926480918</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.817883785246</v>
+        <v>1272.153756443957</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.828332887228</v>
+        <v>1044.16420554594</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.035753743698</v>
+        <v>823.3716264024099</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8705,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.31264782909057</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>51.31264782908983</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.3126478290917</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782911194</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>51.31264782911194</v>
       </c>
       <c r="R20" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,10 +9875,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R29" t="n">
-        <v>51.31264782908309</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10586,10 +10586,10 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>51.31264782909176</v>
       </c>
       <c r="L35" t="n">
-        <v>51.31264782909227</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>51.31264782909193</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.31264782909273</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>51.31264782909216</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.31264782909273</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>76.00797063971547</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>22.96569040029408</v>
       </c>
     </row>
     <row r="14">
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.7044571535268</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>112.4550082207873</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I19" t="n">
-        <v>17.35855759217065</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>84.16945386597398</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>49.7585217069759</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.52394001801584</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>80.97502887069017</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>56.8998804091178</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>165.974030610383</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>43.23559055967699</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>165.974030610383</v>
       </c>
       <c r="D34" t="n">
-        <v>43.23559055967699</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>49.75852170696805</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>56.8998804091178</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>76.00797063971561</v>
+        <v>146.8659403797853</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>65.06136363537628</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>64.87256479221861</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>145.1611721583242</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720366</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>629451.6440720366</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>629451.6440720366</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629451.6440720366</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629198.2785498288</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>800515.725617676</v>
+      </c>
+      <c r="C2" t="n">
         <v>800515.7256176763</v>
       </c>
-      <c r="C2" t="n">
-        <v>800515.7256176762</v>
-      </c>
       <c r="D2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786515.9026905954</v>
+        <v>786515.9026905951</v>
       </c>
       <c r="F2" t="n">
         <v>786515.9026905951</v>
       </c>
       <c r="G2" t="n">
+        <v>786515.9026905948</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786515.9026905946</v>
+      </c>
+      <c r="I2" t="n">
         <v>786515.9026905951</v>
       </c>
-      <c r="H2" t="n">
-        <v>786515.902690595</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>786515.9026905954</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786515.9026905951</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786515.9026905951</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786515.9026905951</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786515.9026905951</v>
+      </c>
+      <c r="O2" t="n">
         <v>786515.9026905952</v>
       </c>
-      <c r="J2" t="n">
-        <v>786515.902690595</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786515.9026905949</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786515.902690595</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786515.9026905954</v>
-      </c>
-      <c r="N2" t="n">
-        <v>786515.9026905954</v>
-      </c>
-      <c r="O2" t="n">
-        <v>786515.9026905955</v>
-      </c>
       <c r="P2" t="n">
-        <v>786967.9346977557</v>
+        <v>786515.9026905952</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545123</v>
+        <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-1.692154792520645e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.157955800110358e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192594</v>
+        <v>176423.2191925918</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901364</v>
+        <v>124307.2113901373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662912</v>
+        <v>5069.915760662903</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662938</v>
+        <v>5069.915760662866</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760662956</v>
+        <v>5069.91576066318</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760663167</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.915760662892</v>
+        <v>5069.915760662823</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662822</v>
+        <v>5069.915760662915</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.91576066282</v>
+        <v>5069.915760662915</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662851</v>
+        <v>5069.915760662934</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662897</v>
+        <v>5069.915760662928</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662871</v>
+        <v>5069.915760662939</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658128</v>
+        <v>5069.915760662916</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
         <v>100930.0394572385</v>
@@ -26488,16 +26488,16 @@
         <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
+        <v>100930.0394572386</v>
+      </c>
+      <c r="J5" t="n">
         <v>100930.0394572385</v>
       </c>
-      <c r="J5" t="n">
-        <v>100930.0394572386</v>
-      </c>
       <c r="K5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
         <v>100930.0394572386</v>
@@ -26509,7 +26509,7 @@
         <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64517.82805270745</v>
+        <v>-64517.82805270769</v>
       </c>
       <c r="C6" t="n">
-        <v>525450.0511618369</v>
+        <v>525450.0511618372</v>
       </c>
       <c r="D6" t="n">
-        <v>525450.0511618369</v>
+        <v>525450.0511618372</v>
       </c>
       <c r="E6" t="n">
-        <v>-255993.7179818184</v>
+        <v>-256029.6149636829</v>
       </c>
       <c r="F6" t="n">
-        <v>680515.9474726936</v>
+        <v>680480.0504908293</v>
       </c>
       <c r="G6" t="n">
-        <v>680515.9474726936</v>
+        <v>680480.0504908321</v>
       </c>
       <c r="H6" t="n">
-        <v>680515.9474726936</v>
+        <v>680480.0504908285</v>
       </c>
       <c r="I6" t="n">
-        <v>680515.9474726939</v>
+        <v>680480.0504908251</v>
       </c>
       <c r="J6" t="n">
-        <v>504092.7282800996</v>
+        <v>504056.8312982378</v>
       </c>
       <c r="K6" t="n">
-        <v>680515.9474726934</v>
+        <v>680480.0504908294</v>
       </c>
       <c r="L6" t="n">
-        <v>680515.9474726936</v>
+        <v>680480.0504908294</v>
       </c>
       <c r="M6" t="n">
-        <v>556208.7360825576</v>
+        <v>556172.839100692</v>
       </c>
       <c r="N6" t="n">
-        <v>680515.9474726941</v>
+        <v>680480.0504908294</v>
       </c>
       <c r="O6" t="n">
-        <v>680515.9474726941</v>
+        <v>680480.0504908294</v>
       </c>
       <c r="P6" t="n">
-        <v>674751.542983475</v>
+        <v>680480.0504908295</v>
       </c>
     </row>
   </sheetData>
@@ -26750,22 +26750,22 @@
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
+        <v>1358.041048716382</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1358.041048716382</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1358.041048716387</v>
+      </c>
+      <c r="J3" t="n">
         <v>1358.041048716386</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
         <v>1358.041048716386</v>
       </c>
-      <c r="I3" t="n">
+      <c r="L3" t="n">
         <v>1358.041048716386</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1358.041048716387</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1358.041048716387</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
         <v>1358.041048716386</v>
@@ -26777,7 +26777,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26972,16 +26972,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-2.72396447297063e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>-1.591615728102624e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,16 +26990,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.463417391751033e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405329</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405324</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>66.26435333854579</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>23.9459416144033</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>202.6835682680295</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,16 +27616,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>320.3636408625134</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27673,13 +27673,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>2.496509910248449</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>21.67858801931582</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.19995918853699</v>
@@ -27822,22 +27822,22 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.12091415361539</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061306</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>11.20710234834291</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>146.6290191212927</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>243.205144897451</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>9.985967608372447e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.67232880436089e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-6.440674018558037e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31847,7 +31847,7 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>439.1579551075595</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -31856,13 +31856,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>454.0288679183415</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32072,10 +32072,10 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>471.6886536848224</v>
@@ -32090,16 +32090,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169084</v>
+        <v>301.871095648389</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>348.1857632660254</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>439.5128616623787</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530528</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K21" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>571.4938338238233</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>220.0891643226255</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436708</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M24" t="n">
-        <v>293.7647843155075</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>277.6708512781307</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436715</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548567</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860859</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551969</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735821</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745732</v>
+        <v>151.1434552068903</v>
       </c>
       <c r="M27" t="n">
-        <v>467.4901056247149</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426213</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H28" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R28" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T28" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>420.766193382321</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927647</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426213</v>
+        <v>357.2897453669905</v>
       </c>
       <c r="P30" t="n">
-        <v>557.796143198246</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H31" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R31" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377432</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122289</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704061</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.364970687407</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830438</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364274</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>958.6336695293319</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229619</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086962</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687533</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148613</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987167</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
-        <v>124.4074789854259</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.89879272665722</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4367569201901945</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.921069425540908</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088193</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684823</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745732</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504309</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927647</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>338.603658081147</v>
+        <v>607.6782885548998</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862166</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821094</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1921756201013756</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.448926481291846</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H34" t="n">
-        <v>21.7731827154857</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284934</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
-        <v>173.1391022273335</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K34" t="n">
-        <v>284.5207311900889</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640622</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265026</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416878</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465966</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
-        <v>296.1865264282427</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q34" t="n">
-        <v>205.0641983561745</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R34" t="n">
-        <v>110.112639786086</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851333</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
-        <v>10.4635949655197</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1335778080704645</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>306.4674191928273</v>
+        <v>293.7647843155082</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33971,25 +33971,25 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927637</v>
+        <v>636.218582673967</v>
       </c>
       <c r="O39" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>357.0213665833166</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34205,34 +34205,34 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L42" t="n">
-        <v>187.8760176396506</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927637</v>
+        <v>366.5958444985333</v>
       </c>
       <c r="O42" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
         <v>54.2575834086216</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647498</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>220.0891643226154</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34790,7 +34790,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735647</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181306</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
         <v>297.223041434342</v>
@@ -35015,7 +35015,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35425,10 +35425,10 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>605.1570404425736</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>418.567381269501</v>
       </c>
       <c r="R11" t="n">
         <v>127.3573607845842</v>
@@ -35495,7 +35495,7 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>297.0239211855412</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35504,13 +35504,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>320.0544605040112</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35656,7 +35656,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554617</v>
       </c>
       <c r="O14" t="n">
         <v>689.7596327870085</v>
@@ -35668,7 +35668,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35720,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>333.8472147104634</v>
@@ -35738,16 +35738,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>279.758213872464</v>
+        <v>159.2748512039446</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>-6.536993168992922e-13</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N17" t="n">
-        <v>796.0449487554599</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695212</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>210.3443242916665</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>308.1711495790453</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>-3.56125702394602e-13</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695212</v>
       </c>
       <c r="R20" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.049527853052794</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K21" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>428.8975893793788</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>86.11475690829525</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.68303457970686</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N23" t="n">
-        <v>744.73230092637</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136732</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946983</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M24" t="n">
-        <v>151.6307503934892</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>146.3291391947974</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.68303457970759</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O25" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K26" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664402</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404118</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069154</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>495.689225094699</v>
+        <v>12.58907542701613</v>
       </c>
       <c r="M27" t="n">
-        <v>325.3560717026966</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981769</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380633</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R29" t="n">
-        <v>178.6700086136676</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>282.2118136024468</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094314</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981769</v>
+        <v>214.6935009225461</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839158</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L31" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>282.3190661607207</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664402</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020592</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.732300926371</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870094</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
-        <v>553.8443926134837</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404118</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845846</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710464</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>495.689225094699</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284126</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094314</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>196.0074136367026</v>
+        <v>465.0820441104554</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066069</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K34" t="n">
-        <v>262.2512393642061</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L34" t="n">
-        <v>391.6786041243784</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883432</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
-        <v>418.8847129209164</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.7297545606363</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931362</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044801</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671542</v>
       </c>
       <c r="L35" t="n">
-        <v>677.0902038955315</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>164.333385270809</v>
+        <v>151.6307503934899</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554617</v>
       </c>
       <c r="O38" t="n">
         <v>689.7596327870084</v>
@@ -37564,7 +37564,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>178.6700086136768</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094305</v>
+        <v>504.8768705906338</v>
       </c>
       <c r="O39" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>223.0469591689864</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>605.157040442575</v>
       </c>
       <c r="Q41" t="n">
         <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>178.6700086136768</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L42" t="n">
-        <v>49.32163785977646</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094305</v>
+        <v>235.2541324152</v>
       </c>
       <c r="O42" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427314</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>86.11475690828513</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
